--- a/pred_ohlcv/54_21/2019-10-29 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 DAD ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>516700.0881317212</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>515930.2146317212</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>515930.2146317212</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>503568.4458317212</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>508515.2754367102</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>396472.2903882432</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>386784.7400314112</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>388715.1761314112</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>388494.9607314112</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>390465.5971314112</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>402958.0030314112</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>401030.6903314111</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>393396.4516314111</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>391158.3804314111</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>367426.6970314111</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>360353.3871375241</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>370857.8639024471</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>364464.2095024471</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>365910.8347024471</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>365898.8434170441</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>365898.8434170441</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>362262.9360170441</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>356180.820317044</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>349885.032417044</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1158846.639817044</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>3942873.184817044</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>8585102.910907615</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>6504906.122007615</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>7396769.928007615</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>7396769.928007615</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>8409714.210307615</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>8468537.891442692</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>8462005.250742693</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>8459748.593442693</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>8463773.186742693</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>8463773.186742693</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>8461208.379705381</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>8468172.037305381</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>8488137.066568067</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>8518748.788117331</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>8589479.591468068</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>8585808.804368068</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>8589483.654868068</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>8584081.982168067</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>8580975.388734456</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>8593514.759385396</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>8578663.871869946</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>8570763.791769946</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>8568740.123769946</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>8569626.532469947</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>8568900.852269948</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>8558561.818569947</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>8563394.770860434</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>8516387.201660434</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>8518334.303460434</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>8518334.303460434</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>8511608.163160434</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>8489817.221560434</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>8490722.764660433</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>8490722.764660433</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>9366870.123560432</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>9715577.259860432</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>9743211.513560431</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>9830763.311660431</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>9830763.311660431</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>7487130.096360432</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>5673052.845660432</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>5673052.845660432</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>4977436.294760432</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>4974921.742960433</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>4992503.566460432</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>4990464.910460432</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>4990792.32350391</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-29 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 DAD ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>516700.0881317212</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>515930.2146317212</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>515930.2146317212</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>503568.4458317212</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>508515.2754367102</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,7 +990,7 @@
         <v>465248.8745932322</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>338937.3841932322</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>322702.5767932322</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>386784.7400314112</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>386738.3281314112</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>388715.1761314112</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>391299.7853314112</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>374988.6258314112</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>374988.6258314112</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>390465.5971314112</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>402954.4705314112</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>401030.6903314111</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>393396.4516314111</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>391158.3804314111</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>367426.6970314111</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>367381.6970314111</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>359859.3862314111</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>360353.3871375241</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>370857.8639024471</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>370774.7400024471</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>371794.0101024471</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>374290.9296024471</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>373755.8678024471</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>375344.4547024471</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>370432.4382024471</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>364464.2095024471</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>364464.2095024471</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>365910.8347024471</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>365898.8434170441</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>365898.8434170441</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>362262.9360170441</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>356180.820317044</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>349885.032417044</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1158846.639817044</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>3942873.184817044</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>6504906.122007615</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>7396769.928007615</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>7396769.928007615</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>8409714.210307615</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>8468537.891442692</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>8462005.250742693</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>8459748.593442693</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>8463773.186742693</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>8463773.186742693</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>8461208.379705381</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>8468172.037305381</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>8488137.066568067</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>8518748.788117331</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>8585808.804368068</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>8593514.759385396</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>8578663.871869946</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>8582915.474569947</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>8570763.791769946</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>8568740.123769946</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>8569626.532469947</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>8568900.852269948</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>8558561.818569947</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>8563394.770860434</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>8562255.287660433</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>8556491.109160433</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>8551269.928960433</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>7487130.096360432</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
